--- a/Ligas/Liga_bolivia_2025.xlsx
+++ b/Ligas/Liga_bolivia_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F42AD-CC1A-4CE9-B728-DE7400CC83F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48404140-E6B9-4FB2-BD04-E31E62413E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="81">
   <si>
     <t>Fecha</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Posesión Visita (%)</t>
   </si>
   <si>
+    <t>Resultado</t>
+  </si>
+  <si>
     <t>2025-03-28</t>
   </si>
   <si>
@@ -85,12 +88,18 @@
     <t>Guabirá</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Nacional Potosí</t>
   </si>
   <si>
     <t>Always Ready</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>2025-03-29</t>
   </si>
   <si>
@@ -136,6 +145,9 @@
     <t>2025-04-04</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>2025-04-05</t>
   </si>
   <si>
@@ -247,16 +259,7 @@
     <t>2025-07-05</t>
   </si>
   <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
     <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>0%</t>
   </si>
   <si>
     <t>2025-07-07</t>
@@ -315,11 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,33 +626,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="P107" sqref="P107"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,16 +697,19 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -759,16 +756,19 @@
       <c r="R2">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -815,16 +815,19 @@
       <c r="R3">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -871,16 +874,19 @@
       <c r="R4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -927,16 +933,19 @@
       <c r="R5">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -983,16 +992,19 @@
       <c r="R6">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1039,16 +1051,19 @@
       <c r="R7">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1095,16 +1110,19 @@
       <c r="R8">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1151,16 +1169,19 @@
       <c r="R9">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1207,16 +1228,19 @@
       <c r="R10">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1263,16 +1287,19 @@
       <c r="R11">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1319,16 +1346,19 @@
       <c r="R12">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1375,16 +1405,19 @@
       <c r="R13">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1431,16 +1464,19 @@
       <c r="R14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1487,16 +1523,19 @@
       <c r="R15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1543,16 +1582,19 @@
       <c r="R16">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1599,16 +1641,19 @@
       <c r="R17">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1655,16 +1700,19 @@
       <c r="R18">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1711,16 +1759,19 @@
       <c r="R19">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1767,16 +1818,19 @@
       <c r="R20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1823,16 +1877,19 @@
       <c r="R21">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1879,16 +1936,19 @@
       <c r="R22">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1935,16 +1995,19 @@
       <c r="R23">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1991,16 +2054,19 @@
       <c r="R24">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2047,16 +2113,19 @@
       <c r="R25">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2103,16 +2172,19 @@
       <c r="R26">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
         <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -2159,16 +2231,19 @@
       <c r="R27">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2215,16 +2290,19 @@
       <c r="R28">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2271,16 +2349,19 @@
       <c r="R29">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2327,16 +2408,19 @@
       <c r="R30">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2383,16 +2467,19 @@
       <c r="R31">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2439,16 +2526,19 @@
       <c r="R32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2495,16 +2585,19 @@
       <c r="R33">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2551,16 +2644,19 @@
       <c r="R34">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2607,16 +2703,19 @@
       <c r="R35">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2663,16 +2762,19 @@
       <c r="R36">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2719,16 +2821,19 @@
       <c r="R37">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2775,16 +2880,19 @@
       <c r="R38">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2831,16 +2939,19 @@
       <c r="R39">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2887,16 +2998,19 @@
       <c r="R40">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -2943,16 +3057,19 @@
       <c r="R41">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -2999,16 +3116,19 @@
       <c r="R42">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -3055,16 +3175,19 @@
       <c r="R43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3111,16 +3234,19 @@
       <c r="R44">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3167,16 +3293,19 @@
       <c r="R45">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3223,16 +3352,19 @@
       <c r="R46">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -3279,16 +3411,19 @@
       <c r="R47">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3335,16 +3470,19 @@
       <c r="R48">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -3391,16 +3529,19 @@
       <c r="R49">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3447,16 +3588,19 @@
       <c r="R50">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3503,16 +3647,19 @@
       <c r="R51">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -3559,16 +3706,19 @@
       <c r="R52">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3615,16 +3765,19 @@
       <c r="R53">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -3671,16 +3824,19 @@
       <c r="R54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3727,16 +3883,19 @@
       <c r="R55">
         <v>66</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3783,16 +3942,19 @@
       <c r="R56">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3839,16 +4001,19 @@
       <c r="R57">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
         <v>32</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3895,16 +4060,19 @@
       <c r="R58">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3951,16 +4119,19 @@
       <c r="R59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4007,16 +4178,19 @@
       <c r="R60">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -4063,16 +4237,19 @@
       <c r="R61">
         <v>53</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -4119,16 +4296,19 @@
       <c r="R62">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4175,16 +4355,19 @@
       <c r="R63">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4231,16 +4414,19 @@
       <c r="R64">
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -4287,16 +4473,19 @@
       <c r="R65">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4343,16 +4532,19 @@
       <c r="R66">
         <v>61</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4399,16 +4591,19 @@
       <c r="R67">
         <v>40</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -4455,16 +4650,19 @@
       <c r="R68">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4511,16 +4709,19 @@
       <c r="R69">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4567,16 +4768,19 @@
       <c r="R70">
         <v>39</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4623,16 +4827,19 @@
       <c r="R71">
         <v>51</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4679,16 +4886,19 @@
       <c r="R72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4735,16 +4945,19 @@
       <c r="R73">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4791,16 +5004,19 @@
       <c r="R74">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4847,16 +5063,19 @@
       <c r="R75">
         <v>60</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -4903,16 +5122,19 @@
       <c r="R76">
         <v>43</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
         <v>24</v>
-      </c>
-      <c r="C77" t="s">
-        <v>22</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4959,16 +5181,19 @@
       <c r="R77">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -5015,16 +5240,19 @@
       <c r="R78">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -5071,16 +5299,19 @@
       <c r="R79">
         <v>52</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -5127,16 +5358,19 @@
       <c r="R80">
         <v>38</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -5183,16 +5417,19 @@
       <c r="R81">
         <v>47</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -5239,16 +5476,19 @@
       <c r="R82">
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -5295,16 +5535,19 @@
       <c r="R83">
         <v>42</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5351,16 +5594,19 @@
       <c r="R84">
         <v>39</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -5407,16 +5653,19 @@
       <c r="R85">
         <v>39</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5463,16 +5712,19 @@
       <c r="R86">
         <v>44</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -5519,16 +5771,19 @@
       <c r="R87">
         <v>53</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -5575,16 +5830,19 @@
       <c r="R88">
         <v>51</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -5631,16 +5889,19 @@
       <c r="R89">
         <v>44</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -5687,16 +5948,19 @@
       <c r="R90">
         <v>59</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -5743,16 +6007,19 @@
       <c r="R91">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -5799,16 +6066,19 @@
       <c r="R92">
         <v>46</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -5855,16 +6125,19 @@
       <c r="R93">
         <v>64</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5911,16 +6184,19 @@
       <c r="R94">
         <v>38</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5961,22 +6237,25 @@
       <c r="P95">
         <v>1</v>
       </c>
-      <c r="Q95" t="s">
-        <v>75</v>
-      </c>
-      <c r="R95" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q95">
+        <v>43</v>
+      </c>
+      <c r="R95">
+        <v>57</v>
+      </c>
+      <c r="S95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5988,51 +6267,54 @@
         <v>1378266</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96">
         <v>2</v>
       </c>
-      <c r="Q96" t="s">
-        <v>78</v>
-      </c>
-      <c r="R96" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q96">
+        <v>49</v>
+      </c>
+      <c r="R96">
+        <v>51</v>
+      </c>
+      <c r="S96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -6044,16 +6326,16 @@
         <v>1378267</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6062,33 +6344,36 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P97">
-        <v>2</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>78</v>
-      </c>
-      <c r="R97" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>53</v>
+      </c>
+      <c r="R97">
+        <v>47</v>
+      </c>
+      <c r="S97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -6100,51 +6385,54 @@
         <v>1378268</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P98">
         <v>1</v>
       </c>
-      <c r="Q98" t="s">
-        <v>78</v>
-      </c>
-      <c r="R98" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q98">
+        <v>53</v>
+      </c>
+      <c r="R98">
+        <v>47</v>
+      </c>
+      <c r="S98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D99">
         <v>4</v>
@@ -6156,51 +6444,54 @@
         <v>1378269</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>2</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>78</v>
-      </c>
-      <c r="R99" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>64</v>
+      </c>
+      <c r="R99">
+        <v>36</v>
+      </c>
+      <c r="S99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -6215,48 +6506,51 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P100">
-        <v>2</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>78</v>
-      </c>
-      <c r="R100" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>48</v>
+      </c>
+      <c r="R100">
+        <v>52</v>
+      </c>
+      <c r="S100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -6268,40 +6562,102 @@
         <v>1378271</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
-      <c r="Q101" t="s">
-        <v>78</v>
-      </c>
-      <c r="R101" t="s">
-        <v>78</v>
+      <c r="Q101">
+        <v>68</v>
+      </c>
+      <c r="R101">
+        <v>32</v>
+      </c>
+      <c r="S101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1378272</v>
+      </c>
+      <c r="G102">
+        <v>7</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>57</v>
+      </c>
+      <c r="R102">
+        <v>43</v>
+      </c>
+      <c r="S102" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Ligas/Liga_bolivia_2025.xlsx
+++ b/Ligas/Liga_bolivia_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48404140-E6B9-4FB2-BD04-E31E62413E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E341AFD-50BC-4CF0-B06A-03B0DB594903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,6 +269,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,18 +631,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">

--- a/Ligas/Liga_bolivia_2025.xlsx
+++ b/Ligas/Liga_bolivia_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94416F9E-A8C4-4082-AF78-EBDB0F2A1EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4C70A-59D6-4B6E-93D5-2983D12EE41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -350,9 +356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,16 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -7508,6 +7509,124 @@
       </c>
       <c r="S116" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>1378247</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>50</v>
+      </c>
+      <c r="R117">
+        <v>50</v>
+      </c>
+      <c r="S117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>90</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1370697</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>2</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>42</v>
+      </c>
+      <c r="R118">
+        <v>58</v>
+      </c>
+      <c r="S118" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Ligas/Liga_bolivia_2025.xlsx
+++ b/Ligas/Liga_bolivia_2025.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:U136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +529,16 @@
           <t>Resultado</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local ().1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita ().1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -600,6 +606,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -667,6 +675,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -734,6 +744,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -801,6 +813,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -868,6 +882,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -935,6 +951,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1002,6 +1020,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1069,6 +1089,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1136,6 +1158,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1203,6 +1227,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1270,6 +1296,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1337,6 +1365,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1404,6 +1434,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1471,6 +1503,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1538,6 +1572,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1605,6 +1641,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1672,6 +1710,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1739,6 +1779,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1806,6 +1848,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1873,6 +1917,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1940,6 +1986,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2007,6 +2055,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2074,6 +2124,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2141,6 +2193,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2208,6 +2262,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2275,6 +2331,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2342,6 +2400,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2409,6 +2469,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2476,6 +2538,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2543,6 +2607,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2610,6 +2676,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2677,6 +2745,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2744,6 +2814,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2811,6 +2883,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2878,6 +2952,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2945,6 +3021,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3012,6 +3090,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3079,6 +3159,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3146,6 +3228,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3213,6 +3297,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3280,6 +3366,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3347,6 +3435,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3414,6 +3504,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3481,6 +3573,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3548,6 +3642,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3615,6 +3711,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3682,6 +3780,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3749,6 +3849,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3816,6 +3918,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3883,6 +3987,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3950,6 +4056,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4017,6 +4125,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4084,6 +4194,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4151,6 +4263,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4218,6 +4332,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4285,6 +4401,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4352,6 +4470,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4419,6 +4539,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4486,6 +4608,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4553,6 +4677,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4620,6 +4746,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4687,6 +4815,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4754,6 +4884,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4821,6 +4953,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4888,6 +5022,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4955,6 +5091,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5022,6 +5160,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5089,6 +5229,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5156,6 +5298,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5223,6 +5367,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5290,6 +5436,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5357,6 +5505,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5424,6 +5574,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5491,6 +5643,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5558,6 +5712,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5625,6 +5781,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5692,6 +5850,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5759,6 +5919,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5826,6 +5988,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5893,6 +6057,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5960,6 +6126,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6027,6 +6195,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6094,6 +6264,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6161,6 +6333,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6228,6 +6402,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6295,6 +6471,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6362,6 +6540,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6429,6 +6609,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6496,6 +6678,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6563,6 +6747,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6630,6 +6816,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6697,6 +6885,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6764,6 +6954,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6831,6 +7023,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6898,6 +7092,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6965,6 +7161,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7032,6 +7230,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7099,6 +7299,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7166,6 +7368,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7233,10 +7437,14 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45845</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-07-07 00:00:00</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -7298,6 +7506,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7365,6 +7575,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7432,6 +7644,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7499,6 +7713,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7566,6 +7782,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7633,6 +7851,8 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7700,6 +7920,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7767,6 +7989,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7834,6 +8058,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7901,6 +8127,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7968,6 +8196,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8035,6 +8265,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8102,6 +8334,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8169,6 +8403,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8236,6 +8472,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8303,6 +8541,8 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8370,6 +8610,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8437,6 +8679,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8504,6 +8748,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8571,6 +8817,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8638,6 +8886,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8705,6 +8955,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8772,6 +9024,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8839,6 +9093,8 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8906,6 +9162,698 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1405500</v>
+      </c>
+      <c r="G127" t="n">
+        <v>11</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="n">
+        <v>2</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>64</v>
+      </c>
+      <c r="R127" t="n">
+        <v>36</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Real Oruro</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1405501</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1</v>
+      </c>
+      <c r="P128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>59</v>
+      </c>
+      <c r="R128" t="n">
+        <v>41</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1405503</v>
+      </c>
+      <c r="G129" t="n">
+        <v>6</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>53</v>
+      </c>
+      <c r="R129" t="n">
+        <v>47</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Bolívar</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Real Tomayapo</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1405504</v>
+      </c>
+      <c r="G130" t="n">
+        <v>8</v>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>3</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>75</v>
+      </c>
+      <c r="R130" t="n">
+        <v>25</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Gualberto Villarroel SJ</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1405506</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>31</v>
+      </c>
+      <c r="R131" t="n">
+        <v>69</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1405505</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>56</v>
+      </c>
+      <c r="R132" t="n">
+        <v>44</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Guabirá</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1405507</v>
+      </c>
+      <c r="G133" t="n">
+        <v>11</v>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>66</v>
+      </c>
+      <c r="R133" t="n">
+        <v>34</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1377779</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>45</v>
+      </c>
+      <c r="R134" t="n">
+        <v>55</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Jorge Wilstermann</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>San Antonio Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1405502</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>37</v>
+      </c>
+      <c r="R135" t="n">
+        <v>63</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1378280</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3</v>
+      </c>
+      <c r="H136" t="n">
+        <v>12</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="n">
+        <v>3</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>49</v>
+      </c>
+      <c r="R136" t="n">
+        <v>51</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
